--- a/config/TestConfiguration.xlsx
+++ b/config/TestConfiguration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>expect timeout</t>
   </si>
   <si>
-    <t>https://salescp.fynxt.com/</t>
-  </si>
-  <si>
     <t>Chromium</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>balaji.rn@trackdfect.com</t>
+  </si>
+  <si>
+    <t>https://test.spendflo.com/</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -282,6 +281,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,17 +728,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" customWidth="1"/>
+    <col min="3" max="3" width="50.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,137 +749,137 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
     </row>

--- a/config/TestConfiguration.xlsx
+++ b/config/TestConfiguration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Playwright-js\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Playwright-js (3)\Playwright-js\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Description</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Receiver</t>
   </si>
   <si>
-    <t>TestAutomationReport@trackdfect.com</t>
-  </si>
-  <si>
-    <t>TD@welcomeTest</t>
-  </si>
-  <si>
     <t>Headless</t>
   </si>
   <si>
@@ -107,13 +101,16 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Pass_Screenshot</t>
-  </si>
-  <si>
-    <t>balaji.rn@trackdfect.com</t>
-  </si>
-  <si>
     <t>https://test.spendflo.com/</t>
+  </si>
+  <si>
+    <t>tddistillautomation@gmail.com</t>
+  </si>
+  <si>
+    <t>muthuram.docs@gmail.com</t>
+  </si>
+  <si>
+    <t>TDwelcome@321</t>
   </si>
 </sst>
 </file>
@@ -418,7 +415,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C15" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C14" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="Description" dataDxfId="2"/>
     <tableColumn id="2" name="Components" dataDxfId="1"/>
@@ -725,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -757,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -768,31 +765,31 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -801,16 +798,16 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
         <v>300</v>
@@ -819,67 +816,58 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -888,7 +876,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"Chromium,Firefox,WebKit"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C5 C10:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C5 C10">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
@@ -899,11 +887,11 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1"/>
-    <hyperlink ref="C12" r:id="rId2"/>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C14" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="C12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
